--- a/emails.xlsx
+++ b/emails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4440" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,11 +45,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pasyati0@hotmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p_outlook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pasyati@hotmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -443,10 +443,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
